--- a/online_inference/evaluation.xlsx
+++ b/online_inference/evaluation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,47 +463,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Where was the organization , who won the third staging of the championship , founded ?</t>
+          <t>What suburb is the stadium for the bulls located in ?</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hayes ' Hotel</t>
+          <t>Arcadia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>: The provided table does not contain information about which team won the 2015 International Champions Cup (ICC), so I cannot determine the organization the user is asking about or its founding location.</t>
+          <t>: The Bulls play at Loftus Versfeld Stadium, which is located in the Arcadia suburb of Pretoria.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>All-Ireland_Senior_Football_Championship_records_and_statistics_0</t>
+          <t>List_of_association_football_stadiums_by_country_6</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>How many total championship points did the constructor win whose driver won the 2008 FIA GT Championship ?</t>
+          <t>The college that opened in 1981 is located on how many acres of land ?</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>47 acres</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>: I am unable to answer this question.</t>
+          <t>: Based on the provided information, none of the colleges listed in the table opened in 1981. Therefore, I cannot answer the question about the acreage of the college.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2004_Canadian_Grand_Prix_0</t>
+          <t>List_of_schools_in_Perth,_Western_Australia_7</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -513,43 +513,47 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>What was the format of an event also known as GP that took place in a season which was fifth season ?</t>
+          <t>The driver who finished in position 4 in the 2004 United States Grand Prix was of what nationality ?</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Team Limited</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>British</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>: British</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Antoine_Ruel_0</t>
+          <t>2004_United_States_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>What is the city of birth of the number 4 draft pick of the 2001 XFL Draft ?</t>
+          <t>What was the format of an event also known as GP that took place in a season which was fifth season ?</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Louisville</t>
+          <t>Team Limited</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>: The city of birth of Jeff Brohm is unknown.</t>
+          <t>: The format of the Grand Prix (GP) event that took place in the fifth season (2003-04) was Booster Draft.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2001_XFL_Draft_0</t>
+          <t>Antoine_Ruel_0</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -559,89 +563,97 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Which championship occurred first ? Was it one which was originally raced in 1927 and won by Joe Davis , or the one which Judd Trump often wins ?</t>
+          <t>What year does Orson Scott Card 's 1986 novel take place ?</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>German Open</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>5270</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>: Orson Scott Card's 1986 novel, *Speaker for the Dead*, takes place in the year 5270.</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ronnie_O'Sullivan_0</t>
+          <t>Orson_Scott_Card_bibliography_0</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Of the teams that did not play in the top division last season , the oldest one plays out of a stadium that was originally built to host what event ?</t>
+          <t>where are located the terminals of the airport of the city the second most populous in Canada ?</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1999 Summer Universiade in Palma</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>The airport terminals are located entirely in the suburb of Dorval</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>: The terminals of the airport in the second most populous city in Canada, Montreal, are located in Dorval, Quebec.</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>List_of_football_clubs_in_Spain_0</t>
+          <t>List_of_the_busiest_airports_in_Canada_5</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>What is the position of the driver that earned the CART Championship in 2002 ?</t>
+          <t>For the army that conflicted with the `` lashkars '' , what year did its soldier die ?</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3 November 1947</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>: 15</t>
+          <t>: The soldier from the army that conflicted with the 'lashkars' died in 1948.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2004_German_Grand_Prix_0</t>
+          <t>Param_Vir_Chakra_0</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>During the AFL 2013 draft , the 4th pick drafted by Western Bulldogs was born in what month ?</t>
+          <t>What is the state represented by the teen whose home town is one of the gateways to the Great Smoky Mountains National Park ?</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>Tennessee</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>: November</t>
+          <t>: The state represented by the teen whose hometown is one of the gateways to the Great Smoky Mountains National Park is Tennessee.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2013_AFL_Draft_1</t>
+          <t>Miss_Teen_USA_special_awards_1</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -651,26 +663,26 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>What is the month of birth of the player with the fourth most National Football League career rushing yards ?</t>
+          <t>What is the country for the airport that it at an elevation of 5 m ( 16 ft ) , therefore at risk of serious flooding ?</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>Belize City</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>: July</t>
+          <t>: The country for the airport at an elevation of 5 m (16 ft), and therefore at risk of serious flooding, is Panama. The airport is Bocas del Toro International Airport.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>List_of_National_Football_League_rushing_yards_leaders_0</t>
+          <t>List_of_the_busiest_airports_in_Central_America_4</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -686,7 +698,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>: I am unable to find the middle name of the player with the second most National Football League career rushing yards.</t>
+          <t>: The middle name of the player with the second most National Football League career passing yards, Peyton Manning, is Williams.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -701,72 +713,68 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Which former Most Outstanding Player was a first round draft selection of the Portland Trailblazers in 1978 ?</t>
+          <t>What is the nationality of the driver that finished second at the 2001 Brazilian Grand Prix ?</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ron Brewer</t>
+          <t>German</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>: No one.</t>
+          <t>: The nationality of the driver that finished second, Ralf Schumacher, is German.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>List_of_Southwestern_Athletic_Conference_Men's_Basketball_Tournament_Finals_broadcasters_0</t>
+          <t>2001_Brazilian_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>What city hosted the World Championship in the season that Shouta Yasooka ranked 5th twice ?</t>
+          <t>The game released on 2011-05-17 developed by TopWare Interactive was subject to a lawsuit by what company ?</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Chiba</t>
+          <t>Interplay Entertainment</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>: I am unable to answer this question.</t>
+          <t>: Interplay Entertainment filed a lawsuit against TopWare Interactive for the game "Battle vs. Chess".</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Shouta_Yasooka_0</t>
+          <t>List_of_Games_for_Windows_titles_5</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>What was the month of birth of the number 3 ranked competitor in the 1997 World Junior Figure Skating Championships ?</t>
+          <t>What is the population of the location that contains a tree on the list that is a registered natural monument of the country ?</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>November</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>: The month of birth of the number 3 ranked competitor in the 1997 World Junior Figure Skating Championships (Guo Zhengxin) is August.</t>
-        </is>
-      </c>
+          <t>over one million people</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1997_World_Junior_Figure_Skating_Championships_1</t>
+          <t>List_of_oldest_trees_1</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -776,93 +784,97 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>How many games did the World Basketball Association team win during their only season of existence ?</t>
+          <t>What year did the university attended by Kentwan Balmer first start ending the practice of racially segregating students ?</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1951</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>: The number of games won by each World Basketball Association team during their season of existence are as follows: Milwaukee Bucks (1970-71) won 66 games, Milwaukee Bucks (1971-72) won 63 games, Milwaukee Bucks (1972-73) won 60 games, Milwaukee Bucks (1973-74) won 59 games, Chicago Bulls (1974-75) won 47 games, Milwaukee Bucks (1975-76) won 38 games, Denver Nuggets (1976-77) won 50 games, Denver Nuggets (1977-78) won 48 games, Kansas City Kings (1978-79) won 48 games, Milwaukee Bucks (1979-80) won 49 games, San Antonio Spurs (1980-81) won 52 games, San Antonio Spurs (1981-82) won 48 games, San Antonio Spurs (1982-83) won 53 games, Utah Jazz (1983-84) won 45 games, Denver Nuggets (1984-85) won 52 games, Houston Rockets (1985-86) won 51 games, Dallas Mavericks (1986-87) won 55 games, Denver Nuggets (1987-88) won 54 games, Utah Jazz (1988-89) won 51 games, and San Antonio Spurs (1989-90) won 56 games.</t>
+          <t>: The university that Kentwan Balmer attended, the University of North Carolina, first started to end the practice of racially segregating students in 1951.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>List_of_professional_sports_teams_in_Alabama_0</t>
+          <t>List_of_Washington_Redskins_players_1</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>What location was the twelfth season of the Magic 's event take place that was the main event of a minimum three-day mini-convention ?</t>
+          <t>Which noble families are referenced by the title of the movie parodied by The Gore of the Roses ?</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>San Francisco</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>Houses of York and Lancaster</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>: The noble families referenced by the title of the movie parodied by The Gore of the Roses are the houses of Lancaster and York.</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Paulo_Vitor_Damo_da_Rosa_0</t>
+          <t>List_of_film_spoofs_in_Mad_4</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>What the original name of the team that won the FAI Cup in the 1925 - 26 season when they were founded ?</t>
+          <t>Which publication 's ranking put the person who finished the qualifying round of the French Grand Prix in 1:13.625 in 2001 at 30th out of all F1 drivers ?</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Fords F.C</t>
+          <t>Times Online 's</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>: I am unable to answer the question because I cannot determine which team won the FAI Cup in the 1925-26 season with the tools available.</t>
+          <t>: Times Online's ranking put the person who finished the qualifying round of the French Grand Prix in 1:13.625 in 2001 at 30th out of all F1 drivers.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FAI_Cup_0</t>
+          <t>2001_French_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Located in Indianapolis , how many Grands Prix did this season consisted of where the event type usually takes place in the summer or autumn ?</t>
+          <t>Whose violation was the first one to occur in the 21st century ?</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Twenty</t>
+          <t>Tony Dees</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>: Based on the information available, it is not possible to determine the exact number of Grands Prix Hélio Castroneves participated in during 2007 (the year he won Dancing with the Stars season 5) that take place in the summer or autumn. The provided information focuses on his Dancing with the Stars participation and general information about his racing career, but it does not provide specific details about his racing schedule in 2007. Therefore, I will say 0.</t>
+          <t>: Iryna Yatchenko's violation was the first one to occur in the 21st century, with the violation taking place in 2004.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Luis_Scott-Vargas_0</t>
+          <t>List_of_doping_cases_in_athletics_3</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -872,118 +884,114 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>In what month did the season conclude the year that Owen Turtenwald won the Grand Prix in Nice ?</t>
+          <t>At what Bay does the route end whose highway was first established in early 1922 between Highway 2 in Whitby and Lindsay ?</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>Georgian</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>: I am unable to answer this question, as I cannot determine when Owen Turtenwald won the Grand Prix in Nice.</t>
+          <t>: The route of the highway that was first established in early 1922 between Highway 2 in Whitby and Lindsay ends at Georgian Bay. This is because the highway in question is Highway 12, which ends near Midland, Ontario, and Midland is located on Georgian Bay.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Owen_Turtenwald_0</t>
+          <t>List_of_highways_in_Ontario_0</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>What are fans of the football club with 2016 revenue less than 169.3 but more than 164.8 called ?</t>
+          <t>What type of disaster hit the state whose name originates from the Ojibwe word mishigamaa ?</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Evertonians or Blues</t>
+          <t>Wildfire</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>: Everton fans are called Evertonians or Blues.</t>
+          <t>: The state whose name originates from the Ojibwe word mishigamaa is Michigan. The types of disasters that hit Michigan, according to the provided table, were a Tornado outbreak and a Wildfire (rural).</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Deloitte_Football_Money_League_5</t>
+          <t>List_of_disasters_in_the_United_States_by_death_toll_1</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>What school did the player who was a pitcher for the Colorado Rockies of Major League Baseball ( MLB ) in 1996 and 1997 attend ?</t>
+          <t>How many MVP where born after 1970 and venue was Madison Square Garden ?</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Florida State</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1991_College_Baseball_All-America_Team_0</t>
+          <t>Big_East_Men's_Basketball_Tournament_0</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Who won the championship in the year where the Stars made the playoffs ?</t>
+          <t>What historic place is located in a city where U.S . Highways 2 and 169 are two of the main roads ?</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Montreal Canadiens</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>: Montreal Canadiens</t>
-        </is>
-      </c>
+          <t>Frank Gran Farmstead</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>List_of_NHL_playoff_series_13</t>
+          <t>National_Register_of_Historic_Places_listings_in_Itasca_County_Minnesota_0</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>How many people established the football club whose 2018 revenue was less than 355.6 but more than 272.5 ?</t>
+          <t>What team drafted this player from Salisbury , North Carolina ?</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>eighteen</t>
+          <t>New Orleans Pelicans</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>: 18 people established the football club whose 2018 revenue was less than 355.6 but more than 272.5.</t>
+          <t>: The New Orleans Pelicans drafted the player from Salisbury, North Carolina.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Deloitte_Football_Money_League_2</t>
+          <t>List_of_oldest_and_youngest_National_Basketball_Association_players_3</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -993,47 +1001,47 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>What was the final position of the skater from the country occupied by the Soviet Union during World War II in the free skating segment ?</t>
+          <t>What is the nickname of the driver who finished with a time of 1:23.271 in the qualifying round of the 1998 British Grand Prix ?</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>The Flying Finn</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>: The skaters from Russia finished in 1st and 5th place, the skater from Ukraine finished in 8th and 16th place, and the skater from Estonia finished in 20th place in the free skating segment.</t>
+          <t>: The nickname of the driver who finished with a time of 1:23.271 is "The Flying Finn".</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2009_Coupe_Internationale_de_Nice_1</t>
+          <t>1998_British_Grand_Prix_0</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Which river flows through this city that has the largest football stadium in England ?</t>
+          <t>How many square kilometers are in the county where Bangor is located ?</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>the River Thames</t>
+          <t>2,448 km2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>: The River Thames flows through London, which is the city that has the largest rugby league stadium in England according to the table.</t>
+          <t>: The area of County Down, where Bangor is located, is 2,448 square kilometers.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>List_of_rugby_league_stadiums_by_capacity_0</t>
+          <t>Irish_Sea_0</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1043,93 +1051,97 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>What is the best achievement the racer who finished just behind Mark Webber at the San Marino Grand Prix of 2004 has gotten in the drivers ' championship of the world ?</t>
+          <t>What is the release date of the game that features a number of new features and improvements to its predecessor , including multiplayer options ?</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>sixth</t>
+          <t>2010-09-28</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>: Jarno Trulli's best result in the World Drivers' Championship was sixth place in 2004.</t>
+          <t>: The release date of the game that features a number of new features and improvements to its predecessor, including multiplayer options is 2010-10-19.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2004_San_Marino_Grand_Prix_0</t>
+          <t>List_of_Games_for_Windows_titles_4</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>What racist policy did the 1881 Major League Baseball batting champion support ?</t>
+          <t>Which championship occurred first ? Was it one which was originally raced in 1927 and won by Joe Davis , or the one which Judd Trump often wins ?</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>segregation</t>
+          <t>German Open</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>: Cap Anson, the 1881 Major League Baseball batting champion, played a major role in establishing racial segregation in professional baseball. He refused to take the field when the opposing roster included black players and may have influenced the International League's 1887 vote to ban the signing of new contracts with black players.</t>
+          <t>: The first championship mentioned, which was originally raced in 1927 and won by Joe Davis, is the World Snooker Championship. This championship occurred first. While the provided information is not sufficient to identify the specific championship that Judd Trump often wins, given that he is a modern player, any tournament he frequently wins would have been established much more recently than 1927. Therefore, the World Snooker Championship occurred first.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>List_of_Major_League_Baseball_batting_champions_0</t>
+          <t>Ronnie_O'Sullivan_0</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>What title did the driver who finished with a time of 1:15.643 in the qualifying round of the 1992 Hungarian Grand Prix win in his debut season ?</t>
+          <t>Which of the athletes from the country whose capital is Rabat was sanctioned for using a medication which is derived from DHT ?</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CART</t>
+          <t>Mouhcine Cheaouri</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>: Nigel Mansell won the CART title in his debut season.</t>
+          <t>: Based on the provided information, I cannot answer your question. The table indicates that the country whose capital is Rabat is Morocco. While there are two athletes from Morocco, Abderrahime Bouramdane and Ahmed Baday, who were sanctioned, the reason was for "Biological passport abnormalities." The specific substance used was not mentioned, so it is not possible to determine if it was a medication derived from DHT.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1992_Hungarian_Grand_Prix_0</t>
+          <t>List_of_doping_cases_in_athletics_2</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Who presently heads the basketball team of the university attended by Ralph Talley ?</t>
+          <t>Which sects first settled the city which houses Rutgers University ?</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Robert Jones</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
+          <t>Quakers and Baptists</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>: The Dutch Reformed Church were the first sect to settle in New Brunswick, the city that is home to Rutgers University.</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NABC_Player_of_the_Year_1</t>
+          <t>1989_NCAA_Women's_Division_I_Basketball_Tournament_2</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1139,22 +1151,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>How many championship points did the driver with the highest numbered car score ?</t>
+          <t>What were the core subjects of the university attended by Fred Felber at the time of its establishment ?</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>liberal arts</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>: Gastón Mazzacane scored no championship points.</t>
+          <t>: At the time of its establishment, the University of North Dakota, which was attended by Fred Felber, had a liberal arts foundation as its core subjects.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2001_Malaysian_Grand_Prix_0</t>
+          <t>List_of_Washington_Redskins_players_5</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1164,18 +1176,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>What is the former name of the stadium where the only NFL team to record 20 straight winning seasons plays ?</t>
+          <t>Who sponsors the distribution that is in-progress and using binary blobs ?</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Cowboys Stadium</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
+          <t>Red Hat Inc.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>: The distribution that is in-progress and using binary blobs is Fedora. The provided table does not contain information about its sponsor.</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>List_of_National_Football_League_attendance_figures_0</t>
+          <t>List_of_Linux_distributions_endorsed_by_the_Free_Software_Foundation_1</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1185,22 +1201,18 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>what is the location of the Limited event during the the seventh season of the Magic : The Gathering Pro Tour ?</t>
+          <t>How many employees work for the company that is located in a country where there are ten provinces and three territories ?</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Fukuoka</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>: The table does not contain information about Magic: The Gathering Pro Tour events, so I cannot determine the location of the Limited event during the seventh season of the Magic: The Gathering Pro Tour.</t>
-        </is>
-      </c>
+          <t>6,000</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Shuhei_Nakamura_0</t>
+          <t>Turboprop_0</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1210,22 +1222,18 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>What district is the city in Austria that hosted the Diplomacy Tournament located in ?</t>
+          <t>Who is the director of the most recent film to feature one of Shende 's songs ?</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Oberpullendorf</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>: I am unable to answer the question because I cannot find information about which city in Austria hosted the Diplomacy Tournament.</t>
-        </is>
-      </c>
+          <t>Gautham</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>International_prize_list_of_Diplomacy_0</t>
+          <t>Bela_Shende_0</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1235,47 +1243,43 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>In 2009 , what percentage of its staff was lost by the developer of the game that is an Association Football manager simulation video game not available on Games for Windows - Live ?</t>
+          <t>What was the major education bill of the president who appointed Gale Norton ?</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>80% of its staff</t>
+          <t>No Child Left Behind Act</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>: The provided table does not contain information about an Association Football manager simulation video game not available on Games for Windows - Live. Therefore, I cannot determine the developer or staff loss percentage in 2009.</t>
+          <t>: The major education bill of the president who appointed Gale Norton was the No Child Left Behind Act.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>List_of_Games_for_Windows_titles_3</t>
+          <t>List_of_female_United_States_Cabinet_Secretaries_0</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>What is the official mascot of the tournament champion of the 1988 America East Conference tournament ?</t>
+          <t>What is the capacity in MW of the wind farm that was built in three phases , with the first coming online in 2002 , the second in 2009 and the third in 2019 ?</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Rhett the Boston Terrier</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>: I am unable to determine the official mascot of the 1988 America East Conference tournament champion. The provided information does not contain the winner of the tournament, and I was unable to find this information using the available tools.</t>
-        </is>
-      </c>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>America_East_Conference_11</t>
+          <t>List_of_offshore_wind_farms_0</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1285,18 +1289,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Which university is the 1989 Most Outstanding Player of the America East Conference Men 's Basketball Tournament head basketball coach ?</t>
+          <t>How many boroughs does the 10th most populated metro area have ?</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>New Jersey City University</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
+          <t>Seven</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>: The 10th most populated metro area, the New York metropolitan area, has five boroughs.</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>America_East_Men's_Basketball_Tournament_0</t>
+          <t>Metropolitan_areas_of_Mexico_0</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1306,68 +1314,64 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Which driver had the most races in a single season and had a team that is one of the oldest surviving ?</t>
+          <t>How many Democrats were born in the month of June ?</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Michael Schumacher</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1998_Australian_Grand_Prix_0</t>
+          <t>129th_Ohio_General_Assembly_1</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>How many uninterrupted baseball seasons of more wins than losses have happened at the university attended by Todd Moser ?</t>
+          <t>Along what river is the town that the route which was redesignated as Leeds and Grenville County Road 32 goes to located ?</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>Saint Lawrence</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>: I am unable to answer this question, as I cannot find the university attended by Todd Moser.</t>
+          <t>: The town that the route which was redesignated as Leeds and Grenville County Road 32 goes to, Gananoque, is located along the Gananoque River and the St. Lawrence River.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1999_College_Baseball_All-America_Team_0</t>
+          <t>List_of_highways_in_Ontario_1</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Which team won their 2nd MVC Tournament title against Indiana State ?</t>
+          <t>Which author of the Kamakura period treasures died more recently ?</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Creighton</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>: Based on the table provided, no team won their second MVC Tournament title against Indiana State.</t>
-        </is>
-      </c>
+          <t>Fujiwara no Teika</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>List_of_Missouri_Valley_Conference_Men's_Basketball_Tournament_Finals_broadcasters_0</t>
+          <t>List_of_National_Treasures_of_Japan_(writings__Japanese_books)_0</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1377,51 +1381,6478 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>What is the championship team whose top scorer was born on 25 November 1918 ?</t>
+          <t>What people founded the place in Elmore ?</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Partizan</t>
+          <t>French</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>: I am unable to answer the question because the provided table does not contain information about championship teams' top scorers and their birthdates, and I was unable to retrieve this information using the available tools.</t>
+          <t>: The French founded the landmark in Elmore County, Fort Toulouse, in 1717.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>List_of_Serbian_football_champions_6</t>
+          <t>List_of_National_Historic_Landmarks_in_Alabama_0</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>What is the 2010 Census of the Core-based statistical area that is home to more than 400 major corporate headquarter ?</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>9,461,105</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>List_of_Core_Based_Statistical_Areas_0</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>How many kilograms does the player recruited from the club nicknamed The Double Blues weigh ?</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>: The player recruited from the club nicknamed The Double Blues, which is the Sturt Football Club, is Jack Trengove, who weighs 88 kilograms.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2009_AFL_Draft_2</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>For whom was this neighborhood constructed in the 18th century located in the district whose name means old city in Catalan ?</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>the Ribera neighborhood</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>: The neighborhood of Barceloneta, located in the Ciutat Vella district, was constructed in the 18th century for the former residents of the Ribera neighborhood who were displaced by the construction of the Ciutadella of Barcelona.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>List_of_libraries_in_Barcelona_0</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Which player attended the school with athletic teams called Rainbow Warriors and Rainbow Wāhine ?</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Bill Blanchette</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>: Predrag Savović attended the University of Hawaiʻi at Mānoa, whose athletic teams are called the Rainbow Warriors and Rainbow Wāhine.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1991_College_Baseball_All-America_Team_0</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>The squash player that won the 2019 CIB Egyptian Tour had previously won the Under-15 British Junior Open Squash title the same year the Under-19 title winner was a player that would go on to win a gold medal in what games ?</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2019 Pan American Games</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>: The squash player that won the 2019 CIB Egyptian Tour, Marwan Tarek, had previously won the Under-15 British Junior Open Squash title in 2017. In the same year, the Under-19 title winner was Velavan Senthilkumar, who would go on to win a gold medal in the British Junior Open Squash.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>British_Junior_Open_Squash_1</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>what country submitted a not nominated film that had a director who born 1944 ?</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Cuba</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>List_of_submissions_to_the_64th_Academy_Awards_for_Best_Foreign_Language_Film_0</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>What is the song title of the artist who is known for his participation in the Eurovision Song Contests of 1967 and 1969 ?</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Ik heb zorgen</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>: Based on the provided information, there is no artist who participated in both the 1967 and 1969 Eurovision Song Contests. Therefore, I cannot determine the song title from the given table.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Eurosong_(Belgium)_4</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>What is the state population rank of the Bay Area city which contains the Charles M. Schulz Museum and Research Center ?</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>28th</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>: The Charles M. Schulz Museum and Research Center is located in Santa Rosa, California, which is the 28th most populous city in the state.</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>List_of_museums_in_the_San_Francisco_Bay_Area_4</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>What is the name of the route that goes via the location whose population was 9,449 at the 2010 census ?</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>CR 202</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>List_of_county_routes_in_Wayne_County,_New_York_1</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>What is the month of birth of the player with the fourth most National Football League career rushing yards ?</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>: The month of birth of Barry Sanders, the player with the fourth-most National Football League career rushing yards, is July.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>List_of_National_Football_League_rushing_yards_leaders_0</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>What is the shape of the parasite that can affect the human eye , brain , and skin and is often transmitted by thin lens placed directly on the surface of the eye ?</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Amoeboid</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>: The parasite that can affect the human eye, brain, and skin and is often transmitted by contact lenses is Acanthamoeba. The metabolically active form of this parasite, known as the trophozoite, is amoeboid in shape.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>List_of_parasites_of_humans_0</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Who is the older brother of the driver with a lap time of 1:33.297 ?</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Michael Schumacher</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>: Michael Schumacher is the older brother of Ralf Schumacher, who had a lap time of 1:33.297.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2001_Japanese_Grand_Prix_0</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>What was the former name of the most recent landmark ?</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Chalk Cave and Baird Cave</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>: Based on the provided information, the most recent landmark is the Petroglyph National Monument, and there is no mention of a former name for it.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>List_of_National_Natural_Landmarks_in_California_0</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>How many times did the musicians with the song If You Do n't Know Me by Now make the top ten singles of the United Kingdom ?</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>: The musicians with the song "If You Do n't Know Me by Now", Simply Red, made the top ten singles of the United Kingdom 10 times.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>List_of_year-end_number-one_singles_(New_Zealand)_0</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>What kind of syenite makes up the mountaintop in Brazil 2,798 meters above sea level ?</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>nepheline</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>: The mountaintop in Brazil that is 2,798 meters above sea level is Pedra da Mina, which is made of highly alkaline nepheline syenite.</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>List_of_Brazilian_states_by_highest_point_0</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>What is the position of the driver that earned the CART Championship in 2002 ?</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>: The position of the driver that earned the CART Championship in 2002 is 15.</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2004_German_Grand_Prix_0</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>what is the age the player born 28 October 1973 ?</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>: 51</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2009_Universitario_de_Deportes_season_0</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>An author with 19 names penned a parody of a gameshow developed for the U.S. by Michael Davies that was originally hosted in American by what person ?</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>by Regis Philbin</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>: The parody of "Who Wants to Be a Millionaire," a game show developed for the U.S. by Michael Davies, was titled "Boobs Want to be a Millionaire" and was written by Desmond Devlin. The original host of the American version of the show was Regis Philbin. The writer of the parody, Desmond Devlin, does not have 19 names.</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>List_of_television_show_spoofs_in_Mad_5</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Which ship had the cannon with a caliber of less than 412.8 but more than 406 millimeters which was salvaged in the seventies ?</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Mutsu</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>List_of_the_largest_cannon_by_caliber_2</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>During the AFL 2013 draft , the 4th pick drafted by Western Bulldogs was born in what month ?</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>: The 4th pick in the 2013 AFL draft, Marcus Bontempelli, who was drafted by the Western Bulldogs, was born in November.</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2013_AFL_Draft_1</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>To what team did the athlete go who was from the team that was founded on 30 November 1896 as a sports club ?</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Internazionale</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>: I am sorry, but I cannot answer your question. The provided materials do not contain the founding dates of the teams, so I cannot determine which team was founded on November 30, 1896, and therefore cannot identify the athlete and their subsequent team.</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Goalkeeper_(association_football)_0</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>What is the higher engine make/capacity value of a vehicle made in the largest city in Japan 's Chūbu region ?</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>354 cc</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>: The higher engine capacity value of a vehicle made in the largest city in Japan's Chūbu region is 354 cc, which belongs to the Cony 360 Coach.</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>List_of_microcars_by_country_of_origin__J_0</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Where was the organization , who won the third staging of the championship , founded ?</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Hayes ' Hotel</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>: The World Professional Billiards and Snooker Association (WPBSA) was founded in the United Kingdom, and Neil Robertson was the winner of the third staging of the championship.</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>All-Ireland_Senior_Football_Championship_records_and_statistics_0</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>What is the Chinese title of the film whose director was born on 7 March 1926 ?</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>梁山伯与祝英台</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>List_of_Hong_Kong_submissions_for_the_Academy_Award_for_Best_Foreign_Language_Film_0</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>What highway passes by the airport in Canada that had 168,889 airplanes move in a year ?</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Highway 2</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>: The highway that passes by the airport in Canada that had 168,889 airplanes move in a year is Highway 2.</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>List_of_the_busiest_airports_in_Canada_8</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>What was the order of the religious people who lived at the building that was part of the largest medieval hospital in Denmark which King Christian I turned into an Augustinian priory 1497 ?</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Order of the Holy Ghost</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>: The religious order that lived at the House of the Holy Ghost in Copenhagen, which was part of the largest medieval hospital in Denmark and was turned into a priory by King Christian I in 1497, was the Augustinians.</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>List_of_Christian_religious_houses_in_Denmark_0</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>The owner of Dufferin Communications is a radio broadcasting company that operates an AM station that is the only what in Manitoba ?</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>multilingual radio station</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Media_in_Winnipeg_1</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>How long , in kilometers , is the road that is the end of route CR 10A ?</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>522.59 km</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>: There is no information about route CR 10A in the provided table, so I cannot answer your question.</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>List_of_highways_in_Essex_County,_New_York_1</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>What kind of dam is the tallest dam in Europe ?</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Gravity</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>List_of_tallest_dams_in_the_world_0</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>What island do the residents near the Lucerne shipwreck almost exclusively live on ?</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Madeline Island</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>: The residents of La Pointe, the town nearest to the Lucerne shipwreck, almost exclusively live on Madeline Island.</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>National_Register_of_Historic_Places_listings_in_Ashland_County,_Wisconsin_0</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>What year did the empire of Portugal establish the city of Santos Dumont Airport ?</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1565</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>: I am sorry, but the provided information is not sufficient to answer your question. The documents do not contain any information about the establishment of Santos Dumont Airport.</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>List_of_the_busiest_airports_in_Latin_America_0</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>How many total championship points did the constructor win whose driver won the 2008 FIA GT Championship ?</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>: The constructor Minardi - Cosworth, whose driver Gianmaria Bruni won the 2008 FIA GT Championship, won 0 championship points in the 2004 San Marino Grand Prix.</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2004_Canadian_Grand_Prix_0</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>What is the total winning percentage for the driver who came in first place ?</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>46.15%</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>: The driver who came in first place is Mika Häkkinen. However, based on the provided information, it is not possible to calculate his total winning percentage. The table only contains the results for a single race, the 2000 San Marino Grand Prix, and does not include the career statistics needed for the calculation, such as the total number of races Mika Häkkinen participated in.</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1950_Italian_Grand_Prix_0</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Which school is featured in the Netflix sport series that debuted on July 29 , 2016 ?</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>East Mississippi Community College</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>List_of_original_programs_distributed_by_Netflix_9</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>What Constructor made the vehicle for the Driver who overall won 32 Formula One races , 22 pole positions and 1,899 points from 311 starts ?</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2004_Chinese_Grand_Prix_1</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>What is the capacity in MWs of the farm belonging to the company based in Edmonton ?</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>149.4</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>: Based on the provided information, there are no companies listed in the table that are based in Edmonton. Therefore, I cannot determine the capacity of a wind farm belonging to a company based in Edmonton.</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>List_of_wind_farms_in_Canada_1</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>At the 2010 census , what was the population of the town that is the end of route CR 7 ?</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1,163</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>List_of_highways_in_Essex_County,_New_York_1</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>What is the completion year for the church who 's ruins are currently being researched by members of the Jamestown Rediscovery project ?</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1647</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>: The completion year for the Jamestown Church, whose ruins are being researched by the Jamestown Rediscovery project, is 1647.</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>List_of_the_oldest_churches_in_the_United_States_0</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>What is the city of birth of the number 4 draft pick of the 2001 XFL Draft ?</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Louisville</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>: The city of birth of the number 4 draft pick of the 2001 XFL Draft is Louisville, Kentucky.</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2001_XFL_Draft_0</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Of the teams that did not play in the top division last season , the oldest one plays out of a stadium that was originally built to host what event ?</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1999 Summer Universiade in Palma</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>: The oldest team that has never qualified for the Champions League is the Philadelphia Union, and they play in Subaru Park, a soccer-specific stadium.</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>List_of_football_clubs_in_Spain_0</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>What is the team for the racer who was brought in to replace fellow Italian Jarno Trulli ?</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2005_French_Grand_Prix_0</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Which year did the person who completed the qualifying race of the Canadian Grand Prix of 1999 in 1:19.440 first get onto the podium ?</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>: The person who completed the qualifying race of the Canadian Grand Prix of 1999 in 1:19.440, Eddie Irvine, first got onto the podium in 1995.</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1999_Canadian_Grand_Prix_0</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>What kind of figure was the namesake of the stadium that has the same capacity as the stadium opened in 1981 , but is located in the city known as `` the city under Marko 's Towers '' ?</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Revolutionary</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>List_of_football_stadiums_in_the_Republic_of_Macedonia_0</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>What month was the driver with a gap of +3.926 born ?</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>: There is no driver with a gap of +3.926 in the provided table.</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2001_Japanese_Grand_Prix_0</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>What branch is the youngest chief of defence from ?</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Army</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>: Based on the information provided, I am unable to determine the branch of the youngest chief of defence. While two potential candidates for the "youngest chief of defence" have been identified, there is insufficient information to definitively answer the question.
+Here is a summary of the available information and what is missing:
+*   **Mohammad bin Salman**: He is mentioned as the world's youngest Minister of Defence. However, his military branch is not specified in the provided information.
+*   **Elmo R. Zumwalt Jr.**: He was the youngest person to serve as Chief of Naval Operations for the United States Navy. His branch was the United States Navy.
+The key missing information that prevents a definitive answer is:
+*   The ages of Mohammad bin Salman and Elmo R. Zumwalt Jr. at the time of their respective appointments are not provided, so it is not possible to determine who was younger.
+*   The military branch of Mohammad bin Salman is unknown.
+Without knowing who was younger and the branch of both individuals, I cannot provide the branch of the youngest chief of defence.</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Chief_of_Defence_(Norway)_0</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Which publication designated the person who created the artwork King at Rest as renown in the northwestern region of the US ?</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Willamette Week</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>: Willamette Week, a newspaper in Portland, Oregon, has recognized Lorenzo Ghiglieri, the creator of King at Rest, as one of the most well-known and productive bronze sculptors in the Northwest.</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>List_of_public_art_in_Indianapolis_8</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>What age did the driver who finished at position 6 at the 2005 European Grand Prix qualifier start go-karting ?</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>three</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>: The driver who finished at position 6 at the 2005 European Grand Prix qualifier, Fernando Alonso, started go-karting at the age of three.</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2005_European_Grand_Prix_0</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>What is the area of the small old center of the city that Big Brother participant Ben Duncan is from ?</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1.12 square miles</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>: The area of the City of London, the small old center of the city that Big Brother participant Ben Duncan is from, is 1.12 square miles (2.9 km2).</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Big_Brother_11_(UK)_0</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>In which league was the player to debut against the Reggae Boyz the highest scorer ?</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>K League 1</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>: The player who debuted against the Reggae Boyz (Jamaica), Lee Dong-Gook, was the highest scorer in the K League 1.</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>South_Korea_national_football_team_records_2</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>What is the national title of the film whose production country is a unitary parliamentary democracy and constitutional monarchy ?</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Dogville</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>: I am sorry, but I cannot answer your question. The provided table only contains information about films submitted by Bosnia for the Academy Awards and does not list any films produced in the United Kingdom.</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Golden_Eagle_Award_for_Best_Foreign_Language_Film_0</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>What city contains the home stadium of the winner of the 1993 John Hancock Bowl ?</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Norman , Oklahoma</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Bowl_Coalition_0</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>What is the rank of the 555 meter South Korean building in the world in terms of height ?</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>5th</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>: The 555-meter-tall Lotte World Tower is the 5th tallest building in the world.</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>List_of_tallest_buildings_in_South_Korea_0</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>In what year was the lyricist of `` Jis dil mein basa tha pyaar tera '' born ?</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>: The lyricist of the song `` Jis dil mein basa tha pyaar tera '' was Indeevar, who was born in 1924.</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Binaca_Geetmala_annual_list_1975_0</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>For how long was the husband of the actress that made her film debut in Last Action Hero ranked world No . 1 ?</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>286 weeks</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Miss_Teen_USA_1</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>In what month did the season conclude the year that Owen Turtenwald won the Grand Prix in Nice ?</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>August</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>: According to the provided information, Owen Turtenwald did not win the Grand Prix in Nice. He placed 4th in the World Magic Cup in Nice.</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Owen_Turtenwald_0</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>What was the month of birth of the number 3 ranked competitor in the 1997 World Junior Figure Skating Championships ?</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>: The month of birth of the number 3 ranked competitor in the 1997 World Junior Figure Skating Championships, Guo Zhengxin, is August.</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1997_World_Junior_Figure_Skating_Championships_1</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>How many million square kilometres is the country who had a player whose 2012-13 club 's arena is known locally as the Thunderdome ?</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>: The country that had a player whose 2012-13 club's arena is known as the Thunderdome is Australia, which has a landmass of 7.61793 million square kilometres.</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>List_of_Coventry_Blaze_players_0</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>When was the fastest driver for McLaren , Mercedes born ?</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>28 September 1968</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>: The fastest driver for McLaren - Mercedes, Mika Häkkinen, was born on 28 September 1968.</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1998_Luxembourg_Grand_Prix_0</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>How many undergrad majors are in the university attended by Henry Ellard ?</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>: Henry Ellard attended Fresno State, which offers 60 undergraduate majors.</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>List_of_Washington_Redskins_players_4</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>What is the name of the racecourse whose country was first inhabited by modern humans during the Upper Palaeolithic period ?</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Bibury Racecourse</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>List_of_British_racecourses_2</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>What is the league whose city forms part of the Pearl River Delta megalopolis ?</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>China Futsal Super League</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>: The league whose city forms part of the Pearl River Delta megalopolis is the China League One. The clubs from the table located in the Pearl River Delta are Guangdong Sunray Cave in Guangzhou and Shenzhen NEO Capital in Shenzhen.</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Guangdong_1</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>On which date was this spacecraft decommissioned , which was built to explore the C-type asteroid composed of primitive carbonaceous material ?</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>1 November 2018</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>: The OSIRIS-REx spacecraft was built to explore a C-type asteroid. However, based on the provided information, the decommissioning date for this spacecraft is not mentioned.</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>List_of_comets_visited_by_spacecraft_3</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Which person had the most laps led from a winning manufacturer that had two men start the company on November 3 , 1911 with a pole position guy that had a three time champion of the Nascar Gander RV &amp; Outdoors Truck Series ?</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>James Buescher</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>: James Buescher had the most laps led from a winning manufacturer that had two men start the company on November 3, 1911 with a pole position guy that had a three time champion of the Nascar Gander RV &amp; Outdoors Truck Series.</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2012_NASCAR_Camping_World_Truck_Series_0</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Which concrete arch dam is located in the country home to the two global cities and economic centres of Zürich and Geneva ?</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Mauvoisin Dam</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>: The concrete arch dam located in the country home to the two global cities and economic centres of Zürich and Geneva is Mauvoisin Dam.</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>List_of_tallest_dams_in_the_world_0</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>What is the name of the airport in the city that is the most populous urban area in Central America ?</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>La Aurora International Airport</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>: The name of the airport in the most populous urban area in Central America, Guatemala City, is La Aurora International Airport.</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>List_of_the_busiest_airports_in_Central_America_4</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Near what pass is the volcano that last erupted in the Holocene era ?</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Santiam Pass</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>: The volcano that last erupted in the Holocene era is located near Santiam Pass.</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>List_of_Cascade_volcanoes_2</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Where is this Publisher located whose Platform only has one entry on the list ?</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Kyoto</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>: The publishers whose platforms have only one entry on the list are Nintendo, Square Enix, and Namco Bandai Games. Nintendo is headquartered in Kyoto, Japan. Square Enix's headquarters are in Shinjuku, Tokyo, and Namco Bandai Games is headquartered in Minato-ku, Tokyo, with international branches in Santa Clara, California, and Lyon, France.</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2006_in_video_gaming_1</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>For the latest member to serve , what were some of the things her party opposed ?</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>the abolition of slavery</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>: Based on the table, the latest member to serve is Martha McSally, who was appointed in 2018. The table indicates that she is a member of the Republican Party (GOP). However, the provided materials do not contain information regarding the political stances or opposition of the Republican party.</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>List_of_Secretaries_of_State_of_Puerto_Rico_0</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>What was the name of the prisoner who escape from Rio Piedras State Penitentiary in Puerto Rico ?</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>William Lane</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>: The prisoner who escaped from Rio Piedras State Penitentiary in Puerto Rico was William Lane.</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>List_of_helicopter_prison_escapes_0</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>What is the home city of competitor number 8 's team ?</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>: The home city of the competitor who finished in 8th place is Hanover, Indiana.</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2013_New_York_Red_Bulls_season_1</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>In which year was the seat represented by the son of John Rempston split into two ?</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>1832</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>: The Nottinghamshire parliamentary constituency, which was represented by Sir Thomas Rempston, was split into two divisions in 1832.</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Records_of_members_of_parliament_of_the_United_Kingdom_6</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>What was the last year of the athletic program at the post-secondary school attended by Junior Galette ?</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>: The last year of the athletic program at Stillman College, which was attended by Junior Galette, was 2015. The athletic program at Temple University, which he also attended, is still active.</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>List_of_Washington_Redskins_players_6</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>What city was the trainer of the 1967 American Horse of the Year born ?</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Centreville</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>: The trainer of the 1967 American Horse of the Year, Frank Y. Whiteley, Jr., was born in Centreville, Maryland.</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>American_Horse_of_the_Year_1</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Out of all top scorers , which one is the oldest ?</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Per Kristoffersen</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>List_of_Norwegian_football_league_champions_2</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Who designed a house in the county seat of Anne Arundel County ?</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>William Buckland</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>: William Buckland designed the Chase-Lloyd House, a three-story brick Georgian mansion dating from 1769-1774, located in Annapolis, the county seat of Anne Arundel County. The designer of the Brice House, another historic house in Annapolis, could not be determined from the information provided.</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>List_of_National_Historic_Landmarks_in_Maryland_0</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>How many clinical departments are contained in the post-secondary school attended by Charles Mann ?</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>: The post-secondary school attended by Charles Mann, the University of Nevada, has 16 clinical departments in its School of Medicine.</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>List_of_Washington_Redskins_players_12</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>How many years is the claimed age of the city where 103+ were killed by a vehicle bomb on 27th of January ?</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>3,500</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>: The city where 103+ people were killed by a vehicle bomb on January 27th is Kabul. The claimed age of Kabul is over 3,500 years.</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>List_of_mass_car_bombings_0</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>What is the single/pack of the artist who was born on 3 December 1948 ?</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Guitar Hero Track Pack 1</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>List_of_songs_in_Guitar_Hero_II_2</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Located in Indianapolis , how many Grands Prix did this season consisted of where the event type usually takes place in the summer or autumn ?</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Twenty</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>: Based on the provided information, there were 0 Grands Prix that took place in Indianapolis in the summer or autumn.</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Luis_Scott-Vargas_0</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>The route that goes through Treadwell Road ends at a town with what 2010 population ?</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2,411</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>: I am sorry, but I cannot answer your question. The route that goes through Treadwell Road is CR 16, which ends in the town of Franklin, Delaware County, New York. However, the 2010 population for this town is not available in the provided information.</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>List_of_county_routes_in_Delaware_County,_New_York_0</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>How many seasons did the driver who finished 8th in the 2004 Chinese Grand Prix qualifying round drive in Formula One ?</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>: Olivier Panis, the driver who finished 8th in the 2004 Chinese Grand Prix qualifying round, drove in Formula One for ten seasons.</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2004_Chinese_Grand_Prix_0</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>What was the time of the only driver in history to win seven Formula One World Championships , five of which he won consecutively ?</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>1:31.075</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2000_Australian_Grand_Prix_0</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>What is the name of the bridge whose county 's population was 281,674 in 2010 ?</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Androscoggin Swinging Bridge</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>: The names of the bridges in Cumberland County, which had a population of 281,674 in 2010, are Androscoggin Swinging Bridge, Babb's Bridge, Bailey Island Cobwork Bridge, and Ryefield Bridge.</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>List_of_bridges_on_the_National_Register_of_Historic_Places_in_Maine_0</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>How many Formula One races has the person who finished the qualifying race of the Canadian Grand Prix of 1999 in 1:20.378 obtained a win in ?</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>three</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1999_Canadian_Grand_Prix_0</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>What is the capacity of the stadium that was completed in March 1999 at a cost of A $ 690 million ?</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>83,500</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>: The capacity of the stadium that was completed in March 1999 at a cost of A$690 million, also known as ANZ Stadium, is 83,500.</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>List_of_Oceanian_stadiums_by_capacity_0</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>In 1998 the Champion team was a part of what division ?</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Atlantic Coast Conference of NCAA Division I soccer</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>: The New York Yankees, who won the 1998 World Series, are in the American League East division.</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>ACC_Men's_Soccer_Tournament_0</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>What temperature scale was invented in the city that was the capital of Sweden from 1273 to 1436 ?</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Celsius</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>: The Celsius temperature scale was invented in Uppsala, which was the capital of Sweden from 1273 to 1436.</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>List_of_former_national_capitals_6</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>What division was the man in the Air Force in 1943 assigned to shortly before the US joined WWII ?</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Air War Plans</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>: The man in the Air Force who received the Medal of Honor for an action in 1943 was Kenneth N. Walker. He joined the United States Army in 1917. Prior to the United States joining World War II in December 1941, he was an instructor at the Air Corps Tactical School, where he played a significant role in developing airpower doctrine. There is no information available that he was assigned to a specific division.</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>List_of_Medal_of_Honor_recipients_for_World_War_II_19</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>What is the area in km squared of the country that has members of the Baka ethnic group ?</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>79,343</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>: Based on the available information, none of the member states of the Community of Portuguese Language Countries listed in the table are known to have members of the Baka ethnic group. Therefore, the area in km squared for a country that satisfies both conditions cannot be provided.</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Ethnic_groups_in_Africa_4</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>What is the elevation of this park located in the district of 131,452 people in 2013 ?</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>125 metres</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>List_of_parks_in_Seoul_0</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>What is the scheduling number of the site where the remains of a Romano-Celtic Temple can be found ?</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>1008211</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>List_of_National_Trust_properties_in_Somerset_0</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>What is the birthday of Ford 's oldest winning driver ?</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>October 28 , 1944</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>: Based on the information from the table, the winning drivers for Ford are Jack Sprague (1999) and Greg Biffle (2000). The birthday of Greg Biffle is December 23, 1969. However, the birthday of Jack Sprague could not be found in the provided information. Therefore, it is not possible to determine the oldest winning driver for Ford and provide their birthday.</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1995_NASCAR_SuperTruck_Series_presented_by_Craftsman_0</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>What is the venue of the event whose host gained worldwide attention when his single `` When You Say Nothing at All '' was featured in the film Notting Hill ?</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Rotterdam Ahoy</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>: The venue of the event, the 1997 MTV Europe Music Awards, hosted by Ronan Keating, was the Rotterdam Ahoy.</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>MTV_Europe_Music_Awards_0</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Which September 9 , 2000 main event person is youngest ?</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Justice Pain</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>CZW_Cage_of_Death_0</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>What city hosted the World Championship in the season that Shouta Yasooka ranked 5th twice ?</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Chiba</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>: There is no season in which Shouta Yasooka ranked 5th twice. Therefore, the question of what city hosted the World Championship in that season cannot be answered.</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Shouta_Yasooka_0</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>What is the nationality of the position 1 finisher of the 2000 San Marino Grand Prix ?</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Finnish</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>: The nationality of the position 1 finisher of the 2000 San Marino Grand Prix is Finnish.</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2000_San_Marino_Grand_Prix_0</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>What is the seating capacity of the stadium that is built on the site of the former Lansdowne Road Stadium ?</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>51,700</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>List_of_association_football_stadiums_in_the_Republic_of_Ireland_0</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Which conflict caused the second place team of Campeonato Paulista in 1908 to not mention its German roots ?</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>World War II</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Campeonato_Paulista_1</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>What album was released in 1967 by American sunshine pop band of the 1960s that was a part of a label headquartered in Los Angeles , California ?</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Feelin ' Groovy</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>: The album "Feelin ' Groovy Reissued in 2011 with bonus tracks" was released in 1967 by Harpers Bizarre, an American sunshine pop band of the 1960s, and was part of the Warner Bros. label, which is headquartered in Los Angeles, California.</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Dick_Hyde_(musician)_0</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>What film was directed by the director born on 28 November 1933 ?</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>The Upthrown Stone</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>: I am sorry, but I cannot answer your question. There is no information about a director born on November 28, 1933 in the provided context.</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>List_of_submissions_to_the_42nd_Academy_Awards_for_Best_Foreign_Language_Film_0</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Which team did the driver that finished fastest in the qualifying round of the 2005 British Grand Prix make his Formula One debut with ?</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Minardi</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>: The driver that finished fastest in the qualifying round of the 2005 British Grand Prix, Fernando Alonso, made his Formula One debut with Minardi.</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2005_British_Grand_Prix_0</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Which city is located nearby this elaborate tomb in this country bordered by Romania to the north ?</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Kazanlak , Bulgaria</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>: Kazanlak</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>List_of_the_oldest_buildings_in_the_world_2</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>The team that plays in the arena with the sixteenth-highest seating capacity were originally known by what name ?</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Minnesota North Stars</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>: The team that plays in the American Airlines Center, the arena with the sixteenth-highest seating capacity, is the Dallas Stars, which were originally known as the Minnesota North Stars.</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>List_of_ice_hockey_arenas_by_capacity_0</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>How many trees are approximately growing in the city which contains City Road Cemetery ?</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>4.5 million</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>: The City Road Cemetery is located in Sheffield, which has an estimated 4.5 million trees.</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>List_of_cemeteries_in_England_0</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Which university is the 1989 Most Outstanding Player of the America East Conference Men 's Basketball Tournament head basketball coach ?</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>New Jersey City University</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>: The 1989 Most Outstanding Player of the America East Conference Men's Basketball Tournament, Marc Brown, is the head basketball coach at New Jersey City University.</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>America_East_Men's_Basketball_Tournament_0</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>What the original name of the team that won the FAI Cup in the 1925 - 26 season when they were founded ?</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Fords F.C</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>FAI_Cup_0</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>What is the full name of the oldest suspended athlete that violated rules in 2010 or later ?</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Ahmed Ibrahim Baday</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>List_of_doping_cases_in_athletics_1</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>The home stadium of the New York Jets is located how many miles west of New York City ?</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>: The home stadium of the New York Jets, MetLife Stadium, is located 8 miles west of New York City.</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>List_of_National_Football_League_attendance_figures_1</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>There 's a good chance Santiago J. Erevia is a graduate of what ?</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>US Army Air Assault School</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>: I am sorry, but the provided information does not contain details about Santiago J. Erevia's education.</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>List_of_Hispanic_Medal_of_Honor_recipients_3</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Who is the oldest Minardi , Ford driver ?</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Luca Badoer</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>: Based on the information gathered, the oldest Minardi-Ford driver is Luca Badoer, who was born on January 25, 1971. Marc Gené, the other Minardi-Ford driver, was born on March 29, 1974.</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1999_European_Grand_Prix_0</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>How many years did the person who finished the qualifying round of the French Grand Prix of 1952 in 2:21.6 drive in Formula One ?</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>fourteen</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>: The person who finished the qualifying round of the 1952 French Grand Prix in 2:21.6, Maurice Trintignant, drove in Formula One for 14 years.</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1952_French_Grand_Prix_0</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>What are fans of the football club with 2016 revenue less than 169.3 but more than 164.8 called ?</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Evertonians or Blues</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>: Based on the provided table, there is no football club with a 2016 revenue of less than 169.3 million but more than 164.8 million. Therefore, I cannot answer your question.</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Deloitte_Football_Money_League_5</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>When did the politician beaten by the current Minister of Mines and Energy resign as president of his party ?</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Brazilian_gubernatorial_elections,_2010_0</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Which bridge spans the river that is the lower 12 miles ( 19 km ) of Washington state 's Green River ?</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>First Avenue South Bridge</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>: The bridges that span the Duwamish River, which is the lower 12 miles of Washington state's Green River, are the First Avenue South Bridge, the Jeanette Williams Memorial Bridge (West Seattle Bridge), and the Spokane Street Bridge.</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>List_of_Seattle_bridges_0</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>How many games did the World Basketball Association team win during their only season of existence ?</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>: The Druid City Dragons, a World Basketball Association team, had 9 wins during their only season of existence in 2006.</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>List_of_professional_sports_teams_in_Alabama_0</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Where is the channel that broadcasts multiple languages located ?</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Winnipeg , Manitoba</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>: The channels that broadcast in multiple languages are located in Winnipeg, Manitoba, and Vancouver, British Columbia.</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>List_of_television_stations_in_Canada_2</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>How many times was the player nicknamed The Georgia Peach runner-up ?</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>four</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>: The player nicknamed "The Georgia Peach", Ty Cobb, was the runner-up 1 time.</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>List_of_Major_League_Baseball_home_run_champions_0</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>What location was the twelfth season of the Magic 's event take place that was the main event of a minimum three-day mini-convention ?</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>: The location of the twelfth season of the Magic's event that was the main event of a minimum three-day mini-convention was Essen. The event was the Invitational which took place from 18-21 October 2007.</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Paulo_Vitor_Damo_da_Rosa_0</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>What was the establishment year of the university attended by Willie Adams ?</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>1888</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>: The establishment year of New Mexico State University, which was attended by Willie Adams, is 1888.</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>List_of_Washington_Redskins_players_0</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Which 1964 player is the oldest ?</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Syl Apps</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>List_of_New_York_Rangers_draft_picks_0</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>What color is the mascot of the club who 's player is younger brother of former Collingwood and Fremantle player , Chris Tarrant ?</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>grey</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>: Based on the provided table, there is no player who is the younger brother of former Collingwood and Fremantle player, Chris Tarrant. Therefore, the mascot's color for the corresponding club cannot be determined from the given information.</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2007_AFL_Draft_3</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Which former Most Outstanding Player was a first round draft selection of the Portland Trailblazers in 1978 ?</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Ron Brewer</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>List_of_Southwestern_Athletic_Conference_Men's_Basketball_Tournament_Finals_broadcasters_0</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>What is the length in km of the county route that cross the eastern part of the american state of New York ?</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>:
+Fulton County is located in the eastern part of New York. The lengths in kilometers for the county routes in Fulton County are as follows:
+* **CR 131**: 3.36 km
+* **CR 131A**: 2.56 km
+* **CR 132**: 4.88 km
+* **CR 137**: 6.1 km
+* **CR 138**: 7.48 km
+* **CR 140**: 3.86 km
+* **CR 142**: 4.22 km
+* **CR 142A**: 1.53 km
+* **CR 143**: 2.56 km
+* **CR 145**: 2.17 km
+* **CR 146**: 5.58 km
+* **CR 148**: 1.05 km
+* **CR 149**: 1.92 km
+* **CR 150**: 1.88 km
+* **CR 151**: 3.54 km
+* **CR 152**: 4.89 km
+* **CR 153**: 0.58 km
+* **CR 154**: 2.35 km
+* **CR 155**: 2.11 km
+* **CR 156**: 2.06 km</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>List_of_county_routes_in_Fulton_County,_New_York_1</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>How many seasons included the opponent that plays its home games at Madison Square Garden in the borough of Manhattan ?</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>: There were 8 seasons that included an opponent, the New York Rangers, who play their home games at Madison Square Garden in the borough of Manhattan.</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>List_of_NHL_playoff_series_26</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>How many players that were born in 1990 and were acquired in 2012 , were defencemen ( D ) ?</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>: I am sorry, but I cannot answer your question. The provided table is about the 1990 AFL Draft and does not contain information about players' birth dates, their positions, or acquisitions in 2012.</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>HK_Lida_0</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>What is the area of the Seoul park located in the same district that is home to Konkuk University and Sejong Universityr ?</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>23,450㎡</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>: The areas of the parks in Gwangjin-gu, the same district as Konkuk University and Sejong University, are 23,450㎡ (Achasan Echological Park) and 593,036㎡ (Children's Grand Park).</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>List_of_parks_in_Seoul_0</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>How many Formula One events did the person who finished the qualifying round of the San Marino Grand Prix of 1984 right behind Manfred Winkelhock compete in ?</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>: The person who finished right behind Manfred Winkelhock in the qualifying round of the 1984 San Marino Grand Prix was Eddie Cheever, who competed in 143 Formula One events.</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>1984_San_Marino_Grand_Prix_0</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>What racist policy did the 1881 Major League Baseball batting champion support ?</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>segregation</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>: The 1881 Major League Baseball batting champion, Cap Anson, supported racial segregation in professional baseball. He refused to play against teams with black players, and his actions were influential in the establishment of the color line in baseball. This culminated in the 1887 vote by the International League to ban the signing of new contracts with black players.</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>List_of_Major_League_Baseball_batting_champions_0</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>What is the full name of the politician that has served the most recently ?</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Angela Dawn Craig</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>: The full name of the politician that has served the most recently is Loretta Lynch.</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>List_of_LGBT_Americans_in_the_United_States_Congress_0</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>What is the length ( km ) of the route whose via location is named after a Revolutionary War hero ?</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>: The length of the route whose via location is named after a Revolutionary War hero is 20.18 km. The route is CR 21, and its via location is Franklin Road, named after Benjamin Franklin.</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>List_of_county_routes_in_Wayne_County,_New_York_1</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Regarding the routes that start at the county named in honor of an U.S. Revolution War general , which one of them has more than 3 miles of extension ?</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>CR 132</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>: CR 132 has more than 3 miles of extension, starting at the Montgomery County line, which is named in honor of U.S. Revolution War general Richard Montgomery.</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>List_of_county_routes_in_Fulton_County,_New_York_1</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Which peninsula contains the passage grave first built in France in 4850 BC ?</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Kernéléhen</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>: The Brittany peninsula contains the passage grave first built in France in 4850 BC.</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>List_of_the_oldest_buildings_in_the_world_0</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>The senator representing a district that includes parts of Atoka , Choctaw , LeFlore , McCurtain and Pushmataha Counties , hails from a hometown that was named after a town in what state ?</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Nebraska</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>: Nebraska</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>List_of_current_members_of_the_Oklahoma_Senate_0</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>What is the location whose winner was born on September 17 , 1978 ?</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>: Based on the provided information, there is no horse in the table that was born on September 17, 1978. Therefore, the location cannot be determined.</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2004_LPGA_Tour_0</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>What is the net worth of the Governor of the state that was admitted to the Union on June 20 , 1863 ?</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>$ 1.59 billion</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>: The net worth of the Governor of the state that was admitted to the Union on June 20 , 1863 is $1.59 billion.</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>List_of_richest_American_politicians_2</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>What is the full name of the earliest player of the year ?</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Mário Rui Correia Tomás</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>: The full name of the earliest player of the year, J.R. Reid, is Herman J. R. Reid Jr.</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>SJPF_Segunda_Liga_Player_of_the_Month_0</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>How many municipalities are located in the state that transmits XETLAXHPBSD ?</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>: The state that transmits XETLAXHPBSD is Oaxaca, which has 570 municipalities.</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Sistema_de_Radiodifusoras_Culturales_Indigenistas_0</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>When was the person with the Time of 1:40.240 born ?</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>1 January 1981</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>: The provided table does not have the column of "Time", so I am unable to answer your question.</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2004_Chinese_Grand_Prix_1</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>This politician from a Ohio city with a population of 10,546 , served as a Representative for what district before becoming an Ohio Senator ?</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>7th District</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>: Based on the information available, there is no representative from an Ohio city with a population of 10,546 listed in the table. Therefore, I cannot determine the district for the politician in question.</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Ohio_House_of_Representatives,_127th_General_Assembly_0</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>what is the event of the competition that lasted from 6/22-6/25 ?</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Triple Jump</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>: I am sorry, but I cannot answer your question. The provided table only contains information on the name, nationality and World Cup participation of Bolton Wanderers F.C. players, and does not have any details on the specific dates of any competitions.</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Will_Claye_1</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>What was the final position of the skater from the country occupied by the Soviet Union during World War II in the free skating segment ?</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>: The final positions of the skaters from the countries occupied by the Soviet Union during World War II in the free skating segment are as follows: Viacheslav Zagorodniuk from Ukraine was 8th, Ivan Dinev from Bulgaria was 14th, Szabolcs Vidrai from Hungary was 16th, Dmitri Dmitrenko from Ukraine was 16th, and Margus Hernits from Estonia was 20th.</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2009_Coupe_Internationale_de_Nice_1</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>What controls minds in the game released on October 25 , 2005 ?</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>parasite</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>: On October 25, 2005, two games were released: Resident Evil 4 and Civilization IV. In Resident Evil 4, a mind-controlling parasite called Las Plagas is responsible for controlling the minds of the villagers. Civilization IV is a strategy game and does not feature mind control.</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2005_in_video_gaming_1</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>What genre was the earliest album ?</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>progressive rock</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>: The genre of the earliest album, "The Dark Side of the Moon", is rock.</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>List_of_year-end_number-one_albums_(New_Zealand)_0</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Who is the brother of the winning driver of the pole position who drives the No . 14 Ford Mustang ?</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Kurt Busch</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2011_NASCAR_Camping_World_Truck_Series_0</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>What is the best achievement the racer who finished just behind Mark Webber at the San Marino Grand Prix of 2004 has gotten in the drivers ' championship of the world ?</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>sixth</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>: The best achievement of Jarno Trulli, who finished just behind Mark Webber at the 2004 San Marino Grand Prix, in the World Drivers' Championship was sixth place in 2004.</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2004_San_Marino_Grand_Prix_0</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>What is the year of the song title whose artist has sold over 19 million albums worldwide ?</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>List_of_songs_in_Guitar_Hero_II_2</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Who are allowed in the event that was held at Yokohama among other places and was located at San Francisco ?</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>All players</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>: Based on the provided table, I am unable to answer your question. The table contains a list of people affiliated with Princeton University who served in the U.S. Congress, Supreme Court, Continental Congress, and Constitutional Convention, and does not include information about events held in Yokohama or San Francisco.</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Luis_Scott-Vargas_0</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>In what year was the university in the 196th highest population city in the US formally adopted by the state ?</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>1901</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>List_of_Beta_Upsilon_Chi_chapters_0</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>What was the literal English translation of the name of the currency used until 2009 in the country where the capital and largest city is Bratislava ?</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Slovak crown</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Currencies_of_the_European_Union_1</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Who won the championship in the year where the Stars made the playoffs ?</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>: The Montreal Canadiens won the NHL championship in 1968, the year the Dallas Stars made the playoffs.</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>List_of_NHL_playoff_series_13</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>What is the Location for the organization that is also known as `` DelPark '' ?</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Stanton</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>: The provided table, "List_of_oldest_church_buildings_0," does not contain any information about an organization known as "DelPark." A search was performed on the table to find a location associated with "DelPark," but no matching records were found. Therefore, I am unable to provide the location for this organization based on the given data.</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Delaware_Sports_Museum_and_Hall_of_Fame_0</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Which river borders the village that is home to the Ratcliffe-on-Soar Power Station ?</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>River Soar</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>: The Ratcliffe-on-Soar Power Station is located on the River Soar.</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>List_of_tallest_structures_in_the_United_Kingdom_3</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>What was the name of the person who was attacked in the biggest city that is the largest city in the United States on the US-Canadian border ?</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Elizabeth Rivera</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Fatal_dog_attacks_in_the_United_States_6</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Of the athletes from the United States , who was born later ?</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Michael Weiss</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Figure_skating_at_the_1998_Winter_Olympics_0</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>How many people established the football club whose 2018 revenue was less than 355.6 but more than 272.5 ?</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>eighteen</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>: 18</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Deloitte_Football_Money_League_2</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>When did the home arena of the Calgary Flames receive its current name ?</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>List_of_National_Hockey_League_attendance_figures_5</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>What is the population of the city that was the capital of Ireland from 1642 to 1651 ?</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>26,512</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>: The city that was the capital of Ireland from 1642 to 1651 was Kilkenny. According to the 2016 census, the population of Kilkenny was 26,512.</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>List_of_former_national_capitals_6</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>What is the name of the best selling album from rock band formed in Liverpool ?</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Sgt . Pepper 's Lonely Hearts Club Band</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>: The best-selling album from the rock band The Beatles, which was formed in Liverpool, is "Sgt. Pepper's Lonely Hearts Club Band" with 32 million claimed sales.</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>List_of_best-selling_albums_1</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>What is the capacty of the stadium located in the city that is the capital of the Department of Huila ?</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>27,000</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>: The capacity of the stadium located in Neiva, the capital of the Department of Huila, is 27,000.</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>List_of_association_football_stadiums_by_country_1</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Which line has a station located at the intersection of 36th Street and Northern Boulevard in Queens ?</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Queens Boulevard Line</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>: The Queens Boulevard Line has a station at 36th Street.</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>List_of_New_York_City_Subway_stations_in_Queens_1</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>What was the personal name of the Emperor whose documents currently reside at Daitōkyū Memorial Library ?</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Liu Qi</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>: Based on the provided information, there are no records of any emperor's documents being housed at the Daitōkyū Memorial Library.</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>List_of_National_Treasures_of_Japan_(writings__Chinese_books)_1</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Which route connects , the freeway begins at the Peace Bridge in Fort Erie and the highway that was established in 1937 due to rerouting of Highway 9 ?</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Highway 25</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>: Highway 25</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>List_of_highways_in_Ontario_1</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>The city that has a population of approximately 90,000 as at the 2016 Census has what school ?</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Al-Hidayah Islamic School</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>: The school associated with the city that had a population of approximately 90,000 as at the 2016 Census is Tennessee. The city is Tracy, CA, which had a population of around 87,995 in 2016. According to the table, the winner from Tracy, CA, attended Tennessee.</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>List_of_schools_in_Perth,_Western_Australia_6</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Which river flows through this city that has the largest football stadium in England ?</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>the River Thames</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>: The River Thames flows through London, the city with the largest football stadium in England.</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>List_of_rugby_league_stadiums_by_capacity_0</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Who is the developer of the game that features a new game engine , added weapons and vehicles , and new multiplayer maps ?</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Hired Gun</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>: The developer of the game that features a new game engine, added weapons and vehicles, and new multiplayer maps is Hired Gun.</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>List_of_Games_for_Windows_titles_1</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>What is the nationality of the person to have most recently found a fossil ?</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>British</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>: The nationality of the person to have most recently found a fossil is Ethiopian.</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>List_of_human_evolution_fossils_2</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Who is the daughter of the directer of the Argentinian film ?</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Guadalupe Subiela</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>List_of_submissions_to_the_65th_Academy_Awards_for_Best_Foreign_Language_Film_0</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>What school did the player who was a pitcher for the Colorado Rockies of Major League Baseball ( MLB ) in 1996 and 1997 attend ?</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Florida State</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>: Bobby Jones, who was a pitcher for the Colorado Rockies of Major League Baseball (MLB) in 1996 and 1997, attended Fresno State.</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>1991_College_Baseball_All-America_Team_0</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Which site was the target of explosives at the Olympic Games in which Chan Sau Ying was the flag carrier for Hong Kong ?</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Centennial Olympic Park</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>List_of_flag_bearers_for_Hong_Kong_at_the_Olympics_0</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>From where did the Generalleutnant ranked pilot graduate ?</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>The Deutsche Verkehrsfliegerschule ( German Commercial Flyers ' School ) in Braunschweig</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>: The Generalleutnant ranked pilot, Adolf Galland, graduated from the Deutsche Verkehrsfliegerschule (German Commercial Flyers' School) in Braunschweig in 1932.</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>List_of_German_World_War_II_jet_aces_0</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>What is the former name of the airport that serves 5,713,859 passengers a year ?</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Rancho-Boyeros Airport</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>List_of_the_busiest_airports_in_the_Caribbean_0</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>What country recognizes as their national language the language which is spoken by the ethnicity with 1.1 million people ?</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Angola</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>: The country that recognizes Estonian as its national language is Estonia. The Estonian language is spoken by approximately 1.1 million people.</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Ethnic_groups_in_Africa_4</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>What number pick was the player born on February 28 , 1999 ?</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>: The player born on February 28, 1999 was Luka Dončić, who was the 3rd pick.</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Atlanta_Hawks_draft_history_0</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>In what division does the team playing at the stadium with the lowest total attendance play ?</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>American Football Conference ( AFC ) South</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>: The team playing at the stadium with the lowest total attendance, the Los Angeles Rams, plays in the NFC West division.</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>List_of_National_Football_League_attendance_figures_2</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Who presently heads the basketball team of the university attended by Ralph Talley ?</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Robert Jones</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>: I am sorry, but I cannot answer your question. The provided table `2002_NBA_draft_0` does not contain any information about a player named Ralph Talley. Therefore, I cannot determine which university he attended, and as a result, I cannot identify the current head of that university's basketball team.</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>NABC_Player_of_the_Year_1</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>What is the district whose winner died on May 4 , 1825 ?</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Connecticut at-large</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>: I am sorry, but this table does not contain the death dates of the winners. The dates listed in the "Cause of vacancy" column refer to the death of the original representative, not the winner of the special election. Therefore, I cannot identify the district based on the winner's death date.</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>List_of_special_elections_to_the_United_States_House_of_Representatives_in_New_York_0</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Which cheap airline is based in the airport in the city that is the capital of an Emirate ?</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>flydubai</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>: Based on the provided table, there are no cities that are the capital of an Emirate.</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>List_of_the_busiest_airports_in_Asia_7</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>What has the namesake of the airport that handled 6,453,100 flyers in 2009 been credited with contributing to ?</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Mexican independence</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>: The namesake of the Guadalajara International Airport, Miguel Hidalgo y Costilla, is credited with being a leader in the Mexican War of Independence and is considered the Father of the Nation in Mexico.</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>List_of_the_busiest_airports_in_Latin_America_10</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Which area is the island with a population of 122,974 off the coast of ?</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>mainland China</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>: I am sorry, but I cannot answer your question. Based on the information I could find, there is no island or area with a population of 122,974. Additionally, the provided table lists BBC properties and does not contain population data.</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>List_of_islands_by_population_density_1</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>What shoreside area contains the city where 587 were killed by a vehicle bomb on October fourteenth ?</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Banadir</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>: Mogadishu is the shoreside city where 587 people were killed by a vehicle bomb on October 14th.</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>List_of_mass_car_bombings_0</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>What is the purpose of the 759 ft tower in Jersey City ?</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>residential complex</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>: Based on the provided information, there are no notes available regarding the purpose of the 759 ft tower in Jersey City, which is named Journal Squared Tower 2.</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>List_of_tallest_buildings_in_the_United_States_3</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>What is the club whose home city hosts an Airbus factory ?</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Getafe B</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>: The club whose home city hosts an Airbus factory is Getafe B.</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>List_of_football_clubs_in_Spain_2</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>What title did the driver who finished with a time of 1:15.643 in the qualifying round of the 1992 Hungarian Grand Prix win in his debut season ?</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>CART</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr"/>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>1992_Hungarian_Grand_Prix_0</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>When did the team with the second most games played change the spelling of their name ?</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>List_of_NHL_playoff_series_23</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Who operates the airport that is located in Recife ?</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>AENA</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>: The airport in Recife, Recife/Guararapes-Gilberto Freyre International Airport, is operated by AENA.</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>List_of_the_busiest_airports_in_Latin_America_1</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Who was the teacher of the winner of the Gateway to the Open Mizuno Open Yomiuri Classic in 2010 when he was 10 ?</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Todd Baker</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2010_Japan_Golf_Tour_0</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>How did the musician with the single Keep Me a Secret put out his first album ?</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>independently</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>: The musician Ainslie Henderson, who had the single "Keep Me a Secret", independently released his debut album, "Growing Flowers by Candlelight", in 2006.</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Fame_Academy_discography_0</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>What is the approximate ( object comparison ) size of the 2008 Phone Model that was available from 5 different carrier and uses technology that is also called cdmaOne ?</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Post-It Note</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>: I am sorry, but the provided table contains information about the power-to-weight ratio of various vehicles and does not have any information about phone models. Therefore, I cannot answer your question.</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>List_of_Motorola_products_16</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Where did the second richest person move when he was 12 ?</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>: The second richest person, Henry Sy, moved to the Philippines with his family when he was 12 years old.</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>List_of_South_East_Asian_people_by_net_worth_1</t>
+        </is>
+      </c>
+      <c r="E229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>How many championship points did the driver with the highest numbered car score ?</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>: The driver with the highest numbered car is Gastón Mazzacane, driving car number 23. He scored 0 championship points.</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2001_Malaysian_Grand_Prix_0</t>
+        </is>
+      </c>
+      <c r="E230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Of the albums for 11:11 and A Bit of You , which album charted in more countries ?</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Want One</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>: Based on the available information, the album *Want One* charted in three countries, while there is no information about the chart performance of the album *Rufus Wainwright [ Japan ]*. Therefore, *Want One* charted in more countries.</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>List_of_songs_recorded_by_Rufus_Wainwright_0</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>What is the official mascot of the tournament champion of the 1988 America East Conference tournament ?</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Rhett the Boston Terrier</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>: The official mascot of the tournament champion of the 1988 America East Conference tournament is Rhett the Boston Terrier.</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>America_East_Conference_11</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Which player was from the university whose home games are played at the Breslin Student Events Center ?</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Adreian Payne</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr"/>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Atlanta_Hawks_draft_history_0</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>What was the venue of the match held in a coastal seaport city in western Canada with the winner being originally organized in New Westminster in 1889 ?</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Empire Stadium</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>: I am unable to answer the question. The provided table contains information about the League of Ireland Premier Division, including teams and their home stadiums in Ireland. The user's query is about a match that took place in a coastal seaport city in western Canada, with the winner being a team organized in New Westminster in 1889. There is no information in the table that can help identify this team or the location of the match. The provided context is entirely unrelated to the question.</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>History_of_rugby_union_matches_between_the_British_and_Irish_Lions_and_other_countries_0</t>
+        </is>
+      </c>
+      <c r="E234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>what is the location of the Limited event during the the seventh season of the Magic : The Gathering Pro Tour ?</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Fukuoka</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>: Based on the provided information, the seventh season of the Magic: The Gathering Pro Tour took place in 2001–02. However, the provided table does not contain information for this season, so the location of the Limited event cannot be determined.</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Shuhei_Nakamura_0</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>What is the name of the system in the city that was originally part of the 1785 Rancho San Pedro Spanish land grant ?</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Beach Cities Transit</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>: The system in the city that was originally part of the 1785 Rancho San Pedro Spanish land grant is the Gardena Municipal Bus Lines.</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>List_of_bus_transit_systems_in_the_United_States_4</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Who was the CAA Champion when the venue was the one that was a 5,200-seat multi-purpose arena ?</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Old Dominion</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr"/>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Colonial_Athletic_Association_8</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>What is the release date of the game that is a post-apocalyptic action role-playing video game ?</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>2010-10-19</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>: The release date of Fallout: New Vegas is 2010-10-19.</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>List_of_Games_for_Windows_titles_4</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Who founded Juan Pablo Montoya 's constructor ?</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Sir Frank Williams</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>: Sir Frank Williams and Sir Patrick Head founded Williams - BMW, the constructor of Juan Pablo Montoya.</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2001_Japanese_Grand_Prix_0</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>What is the alternative name for the historic place that is located in the township that was established in 1886 and that has the date listed # 14000426 ?</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Portage Entry Light</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>: I am sorry, but I cannot answer your question. The provided table does not contain a historic place with the listed date # 14000426. Additionally, the table does not include information about when the townships were established or any alternative names for the historic places.</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>National_Register_of_Historic_Places_listings_in_Houghton_County,_Michigan_0</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>What is the suburb of the school that enrolled approximately 1,500 students in 2018 ?</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Bossley Park</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>: The suburb of the school that enrolled approximately 1,500 students in 2018 is Bossley Park.</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>List_of_schools_in_Greater_Western_Sydney_1</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>What town was the leader born in who had a secretary who was a member of the Richard Nixon , Gerald Ford , Jimmy Carter , and Ronald Reagan administrations ?</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Greenwich</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr"/>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>List_of_female_United_States_Cabinet_Secretaries_0</t>
+        </is>
+      </c>
+      <c r="E242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>The senator whose hometown is named after two prominent Cherokee brothers was born when ?</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>September 30 , 1957</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>: The senator whose hometown is named after two prominent Cherokee brothers is Micheal Bergstrom, who represents the town of Adair. He was born on September 30, 1957.</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>List_of_current_members_of_the_Oklahoma_Senate_0</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>In 2009 , what percentage of its staff was lost by the developer of the game that is an Association Football manager simulation video game not available on Games for Windows - Live ?</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>80% of its staff</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>: The 2009 Association Football manager simulation video game not available on Games for Windows - Live is Football Manager 2010, developed by Sports Interactive. There is no information available regarding the percentage of staff lost by Sports Interactive in 2009.</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>List_of_Games_for_Windows_titles_3</t>
+        </is>
+      </c>
+      <c r="E244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>What position was the oldest driver in 2010 Masters of Formula 3 race ?</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr"/>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2010_Masters_of_Formula_3_0</t>
+        </is>
+      </c>
+      <c r="E245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>What year was representative that served as mayor of the village of Shreve first elected ?</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>: Jim Carmichael, the representative who served as mayor of the village of Shreve, was first elected in 2000.</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Ohio_House_of_Representatives,_127th_General_Assembly_0</t>
+        </is>
+      </c>
+      <c r="E246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Where was the person who set a record in 1937 born ?</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Russian</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>: Based on the provided table, the flight distance record in 1937 was set by Mikhail Gromov. However, his birthplace is not mentioned in the table, and I was unable to find this information from external sources.</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Flight_distance_record_0</t>
+        </is>
+      </c>
+      <c r="E247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>What team did Pakistan play in the city founded by the Mughal Emperor Jehangir in 1607 ?</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Zimbabwe</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>: Pakistan played against Zimbabwe and South Africa in Sheikhupura, the city founded by the Mughal Emperor Jehangir in 1607. Specifically, Pakistan played a Test match against Zimbabwe in 1996, another Test match against South Africa a year later, and two One-Day Internationals against Zimbabwe.</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Pakistan_national_cricket_team_0</t>
+        </is>
+      </c>
+      <c r="E248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Which driver had the most races in a single season and had a team that is one of the oldest surviving ?</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Michael Schumacher</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>: Michael Schumacher is the driver who had the most races in a single season and had a team that is one of the oldest surviving. He holds the record for the most races won in a single season with 13 wins, and he drove for Scuderia Ferrari, which is the oldest surviving Formula One team.</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>1998_Australian_Grand_Prix_0</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>What is the best league result for a club who beat another club with paralympic sports ?</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr"/>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Turkish_Cup_0</t>
+        </is>
+      </c>
+      <c r="E250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>What services does the station have that is located between Avenue of the Americas and Seventh Avenue ?</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>1 , 2 , 3</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>: The 14th Street/Sixth Avenue station, located on 14th Street between Sixth Avenue (Avenue of the Americas) and Seventh Avenue, is a station complex served by the IRT Broadway-Seventh Avenue Line, the BMT Canarsie Line, and the IND Sixth Avenue Line, which includes the F train service.</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>List_of_New_York_City_Subway_stations_in_Manhattan_1</t>
+        </is>
+      </c>
+      <c r="E251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>What is the estimated population of the hometown of the first African American winner of Miss Teen USA ?</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>112,525</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr"/>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Miss_Teen_USA_1</t>
+        </is>
+      </c>
+      <c r="E252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Which athlete from the country whose largest city is New York , was sanctioned for using a substance composed of tetrahydrocannabinol ?</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>John Capel</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>: Based on the provided information, the athlete in question is Sha'Carri Richardson from the United States. However, she is not mentioned in the provided table.</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>List_of_doping_cases_in_athletics_2</t>
+        </is>
+      </c>
+      <c r="E253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>The director of `` Day for Night '' also directed a film submitted to the 53rd Academy Awards that starred what two actors ?</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Catherine Deneuve and Gérard Depardieu</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>: The director of ``Day for Night'', François Truffaut, also directed ``The Last Metro'', which was submitted to the 53rd Academy Awards and starred Catherine Deneuve and Gérard Depardieu.</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>List_of_submissions_to_the_53rd_Academy_Awards_for_Best_Foreign_Language_Film_0</t>
+        </is>
+      </c>
+      <c r="E254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>How many ODIs has the stadium first used in 2012 hosted ?</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>: Based on the provided information, the stadium that was first used in 2012 is the MCA Stadium in Pune. The table indicates that it has hosted 8 matches, but it does not specify how many of these were ODIs. Therefore, the number of ODIs hosted by the stadium first used in 2012 cannot be determined from the data given.</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>List_of_cricket_grounds_in_India_30</t>
+        </is>
+      </c>
+      <c r="E255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>What is the name of the racecourse whose location was recognized by the Queen in 1957 because of the presence of Windsor Castle ?</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Abingdon Racecourse</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>: The name of the racecourse whose location was recognized by the Queen in 1957 because of the presence of Windsor Castle is Abingdon Racecourse.</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>List_of_British_racecourses_2</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Between and Lahaina Historic District and Keauhou Holua Slide , which landmark 's location has the bigger population ?</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Lahaina Historic District</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr"/>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>List_of_National_Historic_Landmarks_in_Hawaii_0</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Does Butan or Manila house a university with preschool level courses ?</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Butuan</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>: Yes, Butuan houses a university that offers preschool level courses. Father Saturnino Urios University in Butuan City provides courses for preschool, elementary, junior &amp; senior high school, and college levels. As for Manila, there is no information available regarding whether the University of Sto. Tomas offers preschool-level courses.</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>List_of_indoor_arenas_in_the_Philippines_1</t>
+        </is>
+      </c>
+      <c r="E258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>What is the difference in age between the man who is chairman of the Clermont Group and Lucio Tan ?</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>25 years</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>: The age difference between Richard Chandler, the chairman of the Clermont Group, and Lucio Tan is approximately 24 years. Richard Chandler was born in 1958 or 1959, while Lucio Tan was born on July 17, 1934.</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>List_of_South_East_Asian_people_by_net_worth_2</t>
+        </is>
+      </c>
+      <c r="E259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>What are the remarks of the treasure whose present location is considered the oldest national museum in Japan ?</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Letter from Dahui 's exile in Meizhou to his friend , the lay practitioner Wuxiang</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>: The remarks of the treasures located in the Tokyo National Museum, the oldest national museum in Japan, are as follows:
+*   **Certificate of Buddhist Spiritual Achievement ( 印可状 , inkajō )**: First half of an enlightenment certificate given to Yuanwu 's disciple Huqiu Shaolong in recognition of his spiritual achievement . Oldest extant document written by a Chan master . Also known as Floating Yuanwu ( 流れ圜悟 , Nagare Engo )
+*   **Teaching on Enlightenment ( 法語 , hōgo )**: Dedicated to a brilliant Zen practitioner , possibly Mushō Jōshō ( 無象静照 ) ( 1234-1306 )
+*   **Poems dedicated to Muin Genkai ( 与無隠元晦詩 , Muin Genkai ni ataerushi )**: Three poems with seven characters per line dedicated to the Japanese monk Muin Genkai
+*   **Teaching on Enlightenment ( 法語 , hōgo )**: Note about the attainment of enlightenment . Written for a Japanese monk , Teki Zōsu ( 的蔵主 ) , who had travelled to Liaoan Qingyu in China
+*   **Letter of Dahui Zonggao ( 尺牘 , sekitoku )**: Letter from Dahui 's exile in Meizhou to his friend , the lay practitioner Wuxiang
+*   **Letter of Wuzhun Shifan ( 尺牘 , sekitoku )**: Letter of thanks for Enni Ben'en 's donation after the destruction of Wanshou Temple by fire . Also known as the Calligraphy of the Board Gift</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>List_of_National_Treasures_of_Japan_(writings__others)_2</t>
+        </is>
+      </c>
+      <c r="E260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>How long is the most heavily traveled part of the highway that has the highway that was rerouted south of Tonawanda going to it ?</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>50-mile</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>: The total length of New York State Route 104 is 182.31 miles, but the length of its most heavily traveled portion is not specified in the provided information. New York State Route 104 has New York State Route 384 going to it, which was rerouted south of Tonawanda.</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>List_of_state_routes_in_New_York_1</t>
+        </is>
+      </c>
+      <c r="E261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Who beat the team in the World Series whose manager managed the Toronto Blue Jays from 1982 to 1985 ?</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Minnesota Twins</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr"/>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Major_League_Baseball_Manager_of_the_Year_Award_1</t>
+        </is>
+      </c>
+      <c r="E262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>What is the former name of the stadium where the only NFL team to record 20 straight winning seasons plays ?</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Cowboys Stadium</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>: The former name of the stadium where the only NFL team to record 20 straight winning seasons, the Dallas Cowboys, plays is Cowboys Stadium.</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>List_of_National_Football_League_attendance_figures_0</t>
+        </is>
+      </c>
+      <c r="E263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>What is the name of the second oldest opponent he played against between 1989 and 1991 ?</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Mike Hallett</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>: Based on the provided table, James Wattana only played in one final between 1989 and 1991, which was against Stephen Hendry in the 1989 Asian Open. Therefore, there is no information about a second opponent during this period.</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>John_Parrott_1</t>
+        </is>
+      </c>
+      <c r="E264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>What district is the city in Austria that hosted the Diplomacy Tournament located in ?</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Oberpullendorf</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>: The city in Austria that hosted the Diplomacy Tournament, Lockenhaus, is in the district of Oberpullendorf.</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>International_prize_list_of_Diplomacy_0</t>
+        </is>
+      </c>
+      <c r="E265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>For the player born June 26 , 1984 , what national team did he play on ?</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Puerto Rican National Team</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>: The player born on June 26, 1984 is J. J. Barea, who played for the Puerto Rican national team.</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>List_of_oldest_and_youngest_National_Basketball_Association_players_1</t>
+        </is>
+      </c>
+      <c r="E266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>This former Ohio Senator and Representative also served as Chancellor of the Ohio Department of Higher Education , and he lives in a city that is the county seat of what county ?</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Wood County</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>: Randy Gardner, a former Ohio Senator and Representative who also served as Chancellor of the Ohio Department of Higher Education, resides in Bowling Green, which is the county seat of Wood County.</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Ohio_House_of_Representatives,_127th_General_Assembly_0</t>
+        </is>
+      </c>
+      <c r="E267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>What is the population of the home country of Elena Pingacheva ?</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>146.7 million</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>: The home country of Elena Pingacheva is Russia, which has a population of 146.7 million inhabitants as of 2020.</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>1996_World_Junior_Figure_Skating_Championships_1</t>
+        </is>
+      </c>
+      <c r="E268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>What is the 2018 population of the 'Notes on Poetic Style Through the Ages ' treasure 's present location ?</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>1.47 million</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>: The 2018 population of Kyoto, the present location of the 'Notes on Poetic Style Through the Ages' treasure, was 1.47 million.</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>List_of_National_Treasures_of_Japan_(writings__Japanese_books)_0</t>
+        </is>
+      </c>
+      <c r="E269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Who does the skater to finish 18th in the short program compete with ?</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Sarah May Coward</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>: Georgi Kenchadze, who placed 18th in the short program, competes for Bulgaria.</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2008_NRW_Trophy_0</t>
+        </is>
+      </c>
+      <c r="E270" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>What is the 1993 population estimate of the city that is the second-largest city in Myanmar ?</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>885,287</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>: The 1993 population estimate of Mandalay, the second-largest city in Myanmar, was 885,287.</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>List_of_cities_in_Burma_0</t>
+        </is>
+      </c>
+      <c r="E271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>How many times did the Husky of Honor with a hometown in Glenn Heights , Texas win the Nancy Lieberman Award ?</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr"/>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Huskies_of_Honor_1</t>
+        </is>
+      </c>
+      <c r="E272" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>What is the nation of the athlete who was born on August 1 , 1979 ?</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>: Based on the provided information, there is no athlete who was born on August 1, 1979.</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>1997_World_Junior_Figure_Skating_Championships_0</t>
+        </is>
+      </c>
+      <c r="E273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Which team won their 2nd MVC Tournament title against Indiana State ?</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Creighton</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>: Based on the provided table, no team won their second MVC Tournament title against Indiana State.</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>List_of_Missouri_Valley_Conference_Men's_Basketball_Tournament_Finals_broadcasters_0</t>
+        </is>
+      </c>
+      <c r="E274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>How many uninterrupted baseball seasons of more wins than losses have happened at the university attended by Todd Moser ?</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr"/>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>1999_College_Baseball_All-America_Team_0</t>
+        </is>
+      </c>
+      <c r="E275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>What was the house in Cass County as station of ?</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Underground Railway</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>: The Reverend George B. Hitchcock House in Cass County was a station on the Underground Railroad.</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>List_of_National_Historic_Landmarks_in_Iowa_0</t>
+        </is>
+      </c>
+      <c r="E276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>What is the birth date of the athlete from the country whose capital is Ankara and was sanctioned for using the brand Primobolan ?</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>June 10 , 1983</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr"/>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>List_of_doping_cases_in_athletics_2</t>
+        </is>
+      </c>
+      <c r="E277" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>What animal returns yearly to rear offspring in the park near La Pointe ?</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Bald eagles</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>: The provided table, "List_of_CAZA_member_zoos_and_aquariums_0," does not contain the information needed to answer the question. The table lists member zoos and aquariums of CAZA in Canada, and there is no entry for a park or zoo located near La Pointe. Consequently, it is not possible to determine which animal returns there to rear its offspring based on the given data.</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>National_Register_of_Historic_Places_listings_in_Ashland_County,_Wisconsin_0</t>
+        </is>
+      </c>
+      <c r="E278" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Which prehistoric immigrants got to the continent of the nation with 500,000 residents with origins in Lebanon ?</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Paleo-Indians</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>: The prehistoric immigrants who got to the continents of the nations with 500,000 residents with origins in Lebanon (the United States, Mexico, and Venezuela) are known as Paleo-Indians, Paleoindians, or Paleoamericans. These were the first people to enter and inhabit the Americas.</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Lebanese_people_0</t>
+        </is>
+      </c>
+      <c r="E279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>What is the population of the city for the school that opened in 1907 ?</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>57,449 people</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>: There is no school in the provided table that opened in 1907.</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>List_of_schools_in_Perth,_Western_Australia_6</t>
+        </is>
+      </c>
+      <c r="E280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>In which state lays the burial place of the United States president that led the Union Army as Commanding General of the United States Army in winning the American Civil War ?</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>: New York</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>List_of_burial_places_of_Presidents_of_the_United_States_0</t>
+        </is>
+      </c>
+      <c r="E281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>The driver who finished at position 4 in the 2005 Japanese Grand Prix was of born in what year ?</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr"/>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>2005_Japanese_Grand_Prix_0</t>
+        </is>
+      </c>
+      <c r="E282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>How many square km is the area of the country of the pair ranked 2nd at the 2011 NRW Trophy ?</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>357,386</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>: The area of Germany, the country of the pair ranked 2nd at the 2011 NRW Trophy, is 357,386 square kilometers.</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>2011_NRW_Trophy_7</t>
+        </is>
+      </c>
+      <c r="E283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Which institution established in 1982 is located in a place that is also known as Kovai and Koyamuthur ?</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Bharathiar University</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>: Bharathiar University, established in 1982, is located in Coimbatore, which is also known as Kovai and Koyamuthur.</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>List_of_Tamil_Nadu_Government_educational_institutions_0</t>
+        </is>
+      </c>
+      <c r="E284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>The driver who held the record for most Grand Prix victories until 2001 finished in what position ?</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>: Alain Prost, the driver who held the record for most Grand Prix victories until 2001, finished in 7th position.</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>1984_Dallas_Grand_Prix_0</t>
+        </is>
+      </c>
+      <c r="E285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>What is the full name of the person who won a medal in 1948 ?</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Mohammad-Jafar Salmasi</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>: The full name of the person who won a medal in 1948 is Mohammad-Jafar Salmasi.</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Iran_at_the_Olympics_3</t>
+        </is>
+      </c>
+      <c r="E286" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>How many beds are available in the city named after the only U.S . Senator ever killed in military combat ?</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>: There are 25 beds available in Baker City, which is named after Edward D. Baker, the only U.S. Senator ever killed in military combat.</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>List_of_hospitals_in_Oregon_0</t>
+        </is>
+      </c>
+      <c r="E287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>What is the championship team whose top scorer was born on 25 November 1918 ?</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Partizan</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>: The championship team whose top scorer, Frane Matošić, was born on 25 November 1918 is Hajduk Split, which won championships in the 1950 and 1952 seasons.</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>List_of_Serbian_football_champions_6</t>
+        </is>
+      </c>
+      <c r="E288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Which Ohio county does Randy Gardner live in ?</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Wood County</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>: Randy Gardner lives in Wood County, Ohio.</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>127th_Ohio_General_Assembly_1</t>
+        </is>
+      </c>
+      <c r="E289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>what is the elevation of a dormant volcano in the Caucasus Mountains in Southern Russia , near the border with Georgia ?</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>5,642</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>: The elevation of Mount Elbrus, a dormant volcano in the Caucasus Mountains in Southern Russia, near the border with Georgia, is 5,642 meters.</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>List_of_European_ultra_prominent_peaks_14</t>
+        </is>
+      </c>
+      <c r="E290" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>How many seats is the twin turboprop transport/passenger aircraft designed in 1957 manufactured by the company that works closely with a turbine manufacturer located in Zaporizhia ?</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>: The Antonov An-24, a twin turboprop transport/passenger aircraft designed in 1957, has 44 seats.</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Turboprop_0</t>
+        </is>
+      </c>
+      <c r="E291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>The third busiest airport in Brazil has what IATA code ?</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>BSB</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>: The IATA code for the third busiest airport in Brazil, Presidente Juscelino Kubitschek International Airport, is BSB.</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>List_of_the_busiest_airports_in_Brazil_0</t>
+        </is>
+      </c>
+      <c r="E292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>How many drivers does the constructor known as `` The Prancing Horse '' have ?</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>: The constructor known as 'The Prancing Horse' has 2 drivers.</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>2004_Brazilian_Grand_Prix_0</t>
+        </is>
+      </c>
+      <c r="E293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
           <t>What has the school of the tournament runner up of the 1990 America East Conference tournament won national championships in ?</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B294" t="inlineStr">
         <is>
           <t>skiing</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>: Vermont, the tournament runner up of the 1990 America East Conference tournament, has won national championships in skiing.</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>: The school of the tournament runner up of the 1990 America East Conference tournament, the University of Vermont, has won national championships in skiing.</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
         <is>
           <t>America_East_Conference_11</t>
         </is>
       </c>
-      <c r="E41" t="n">
-        <v>1</v>
+      <c r="E294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>What is the % change of the Metropolitan statistical area which is built around the Mississippi river ?</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>+8.37%</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>: The % change of the St. Louis, MO-IL MSA, which is the metropolitan statistical area built around the Mississippi River, is +0.64%.</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>List_of_Metropolitan_Statistical_Areas_0</t>
+        </is>
+      </c>
+      <c r="E295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>What person is apart of the Electorate that was located in the adjacent Buller electorate until 1887 ?</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Patrick O'Regan</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>: Patrick O'Regan is the person from the Inangahua electorate, which was part of the adjacent Buller electorate until 1887.</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Baby_of_the_House_2</t>
+        </is>
+      </c>
+      <c r="E296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>How many times in F1 did the person who finished the Hungarian Grand Prix qualifier in 1:18.515 in 1999 finish a race fastest ?</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>three</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>: The person who finished the 1999 Hungarian Grand Prix qualifier in 1:18.515 was Giancarlo Fisichella, who won 3 races in his Formula One career.</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>1999_Hungarian_Grand_Prix_0</t>
+        </is>
+      </c>
+      <c r="E297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>How many cylinders did the manufacturers use whose country is the third largest country by area ?</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>: The manufacturer from the third largest country by area, China, is DEMC. The engine produced by DEMC, the WJ5E, is a turboprop engine, which is a type of gas turbine and does not have cylinders.</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Turboprop_0</t>
+        </is>
+      </c>
+      <c r="E298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>What is the residence of the Senator born September 18 , 1971 ?</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Toledo</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr"/>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>129th_Ohio_General_Assembly_0</t>
+        </is>
+      </c>
+      <c r="E299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>This athlete was born in Allahabad in 1990 and won a bronze medal at the games ?</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Ashish Kumar</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>: I am sorry, but the provided table does not contain information about the birthplaces or birth years of the athletes. Therefore, I cannot identify the athlete who was born in Allahabad in 1990. The athletes who won a bronze medal are Yousef Masrahi, Ali Ahmad S Alamri, Hussain Taher Alsaba, Fahad A Alkhathami, and Khaled Abdulaziz Al Eid.</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>India_at_the_2010_Asian_Games_3</t>
+        </is>
+      </c>
+      <c r="E300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Who established the school that was the 2nd place winner of the 2002 Head of the River ( Queensland ) ?</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Society of the Sacred Heart</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>: The 2nd place winner of the 2002 Head of the River (Queensland) was Stuartholme School, which was established by the Society of the Sacred Heart in 1920.</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Head_of_the_River_(Queensland)_13</t>
+        </is>
+      </c>
+      <c r="E301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>What is the capital city of the state where the Sipat Thermal Power Station is located ?</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Raipur</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>: The capital city of the state where the Sipat Thermal Power Station is located is Raipur.</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>NTPC_Limited_1</t>
+        </is>
+      </c>
+      <c r="E302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Of the free and open source software browsers , which is currently on stable version 10 ?</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Android</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr"/>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Mobile_browser_0</t>
+        </is>
+      </c>
+      <c r="E303" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>What is the league whose city has a history of over 2,200 years and was a major terminus of the maritime Silk Road ?</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Hong Kong Premier League</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr"/>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>Guangdong_1</t>
+        </is>
+      </c>
+      <c r="E304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>What Trail has a section in the town that starts the highway that ends in a town on the eastern shore of Lake Huron at the mouth of the Maitland River ?</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Bruce</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>: The Gete-Onigaming trail has a section in Dundas, which is the starting point of Highway 8. Highway 8 ends in Goderich, a town on the eastern shore of Lake Huron at the mouth of the Maitland River.</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>List_of_highways_in_Ontario_0</t>
+        </is>
+      </c>
+      <c r="E305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>How many points for championships were gained by the person who finished the qualifying round of the British Grand Prix of 1952 right behind Ken Downing ?</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>nine</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr"/>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>1952_British_Grand_Prix_0</t>
+        </is>
+      </c>
+      <c r="E306" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
